--- a/legendre_out/DATA/o17_ng/o17_ngFits.xlsx
+++ b/legendre_out/DATA/o17_ng/o17_ngFits.xlsx
@@ -391,13 +391,13 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>1.085569283044209e-11</v>
+        <v>8.638685864660806e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>9.664710930513392e-13</v>
+        <v>7.690932585876313e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07191004939374815</v>
+        <v>0.07191004840380497</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -410,13 +410,13 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>8.76492249039223e-12</v>
+        <v>6.974903704816981e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30419125428105e-12</v>
+        <v>1.037842424315535e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1298535070740361</v>
+        <v>0.1298535046655029</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -429,13 +429,13 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>8.391868917276141e-12</v>
+        <v>6.67803709779381e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.335295311120101e-12</v>
+        <v>1.062594245558122e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9443164773077307</v>
+        <v>0.9443164767578994</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -448,13 +448,13 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>9.697941413942553e-12</v>
+        <v>7.71737656988127e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.558378015511746e-12</v>
+        <v>1.240117821583516e-13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5951804360292084</v>
+        <v>0.5951804400712084</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>1.169218965497069e-11</v>
+        <v>9.304348909736249e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.844776002035391e-12</v>
+        <v>1.468026099293532e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3428873566167847</v>
+        <v>0.3428873499871441</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>9.618639099850881e-12</v>
+        <v>7.654269793592442e-13</v>
       </c>
       <c r="C7" t="n">
-        <v>1.824928516343294e-12</v>
+        <v>1.452231971882517e-13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9504963416474955</v>
+        <v>0.9504963409119546</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -505,13 +505,13 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>1.019718298791825e-11</v>
+        <v>8.114660388570361e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.647354382780043e-12</v>
+        <v>1.310922964780261e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6272571063569421</v>
+        <v>0.6272571117861104</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -524,13 +524,13 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>1.054448085773266e-11</v>
+        <v>8.391031259470681e-13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.216934054833574e-12</v>
+        <v>9.684053537645812e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2219172656868983</v>
+        <v>0.2219172663854688</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>1.31439081778717e-11</v>
+        <v>1.045958979693246e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>1.952511604517373e-12</v>
+        <v>1.553759366952714e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9776221324839375</v>
+        <v>0.977622129847355</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>1.30256140704719e-11</v>
+        <v>1.036545431896859e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.926036724301548e-12</v>
+        <v>1.532691327426491e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8703822611158905</v>
+        <v>0.8703822612481164</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>1.449316041393954e-11</v>
+        <v>1.153329060583197e-12</v>
       </c>
       <c r="C12" t="n">
-        <v>1.623595495345786e-12</v>
+        <v>1.292016244541903e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1648625428581072</v>
+        <v>0.1648625493409437</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>1.389756823262435e-11</v>
+        <v>1.105933338038148e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.508936575232537e-12</v>
+        <v>1.200773574186399e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4289380041118663</v>
+        <v>0.4289380026671458</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.825424682006675e-12</v>
+        <v>3.399720106292538e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.01490555988661e-12</v>
+        <v>8.378973217679633e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4314686827008779</v>
+        <v>0.89881174199398</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>4.134794929189649e-12</v>
+        <v>3.290365261668069e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>1.101541632577594e-12</v>
+        <v>8.765789799718907e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.977729991865567</v>
+        <v>0.9777299920760358</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>3.650204382251182e-12</v>
+        <v>2.904740352145901e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>1.118675915537125e-12</v>
+        <v>8.902140088430569e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9108322946425422</v>
+        <v>0.9108322949439117</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>3.921485870497916e-12</v>
+        <v>3.120619300959645e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>1.30235626706229e-12</v>
+        <v>1.036382187096053e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7203668935959739</v>
+        <v>0.7203668916199724</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -695,13 +695,13 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>4.152357307562877e-12</v>
+        <v>3.897297023133836e-13</v>
       </c>
       <c r="C18" t="n">
-        <v>1.424552917159692e-12</v>
+        <v>1.160147982178266e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1159964649672311</v>
+        <v>0.6536002833009393</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>2.629341188660279e-12</v>
+        <v>3.507429299500482e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>1.044645017512588e-12</v>
+        <v>1.098507127117022e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3972497649994303</v>
+        <v>0.9804430724402516</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>2.631616632892759e-12</v>
+        <v>2.09417397905247e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>1.076880539642446e-12</v>
+        <v>8.569543037431642e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7272907664876765</v>
+        <v>0.7272907662648054</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>6.22977791750047e-12</v>
+        <v>4.957499756864076e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>2.437808736911361e-12</v>
+        <v>1.939946553085712e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9915956547078605</v>
+        <v>0.9915956545856628</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>3.274066462378156e-12</v>
+        <v>2.605419308825583e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>1.45959963197823e-12</v>
+        <v>1.16151248152479e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7614429887234513</v>
+        <v>0.7614429884581349</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -790,13 +790,13 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>5.302979513850184e-12</v>
+        <v>6.526573909083461e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>6.382683260529637e-12</v>
+        <v>5.673049921009147e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4547371923230679</v>
+        <v>0.3887444133672476</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -809,13 +809,13 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>1.909782348967184e-12</v>
+        <v>5.684868334517196e-13</v>
       </c>
       <c r="C24" t="n">
-        <v>1.12969370990413e-12</v>
+        <v>2.794505776039943e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666477733721871</v>
+        <v>0.8406427986919577</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -828,13 +828,13 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>3.216813080705866e-12</v>
+        <v>6.130247133749225e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>2.178522218301364e-12</v>
+        <v>4.581825390441421e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5048636860979774</v>
+        <v>0.4171799978834716</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>3.417445554729203e-12</v>
+        <v>3.533116067649174e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>1.915554635479693e-12</v>
+        <v>1.822642902665138e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6644635934012293</v>
+        <v>0.6329730940074814</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>8.771860340629165e-12</v>
+        <v>6.980424680369357e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>3.931467656304516e-12</v>
+        <v>3.12856255430488e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8810874915073197</v>
+        <v>0.8810874903200987</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -885,13 +885,13 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>1.249843543255659e-11</v>
+        <v>9.94593889420267e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>7.276081583783586e-12</v>
+        <v>5.790121754019327e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7858085032585945</v>
+        <v>0.7858085040892986</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -904,13 +904,13 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>7.760030438652706e-12</v>
+        <v>6.17523601098088e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>3.209594779524134e-12</v>
+        <v>2.554114370246985e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.978803143401123</v>
+        <v>0.9788031434000027</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -923,13 +923,13 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>1.554630487347871e-12</v>
+        <v>2.12918369062295e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>9.016345062481549e-13</v>
+        <v>9.971039853031287e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4674864274799326</v>
+        <v>0.642869338255092</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>6.490257216461792e-12</v>
+        <v>6.151328643333332e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>4.334253491718477e-12</v>
+        <v>3.611914117151416e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3575328412855812</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>2.483576739624724e-12</v>
+        <v>2.615434405815807e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>1.794177551271813e-12</v>
+        <v>1.48951238507337e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2642608776417747</v>
+        <v>0.5299212406210954</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -980,13 +980,13 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>7.903059494210629e-13</v>
+        <v>2.720726430578681e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>5.169058397572809e-13</v>
+        <v>1.345911439263634e-13</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4519240753522208</v>
+        <v>0.7989427459900635</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>5.752101575999882e-12</v>
+        <v>4.577376993411609e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>2.685875725463549e-12</v>
+        <v>2.137351990911252e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7108282517804485</v>
+        <v>0.7108282514723498</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>5.889213918697349e-12</v>
+        <v>4.686487530944626e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>2.379611471356346e-12</v>
+        <v>1.893634641982789e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9991501174627925</v>
+        <v>0.9991501174530512</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>1.455049265566225e-12</v>
+        <v>3.551062699189725e-13</v>
       </c>
       <c r="C36" t="n">
-        <v>7.413290274694271e-13</v>
+        <v>1.777082896371798e-13</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4976976207408385</v>
+        <v>0.7212548664320395</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1056,13 +1056,13 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.289616245152084e-12</v>
+        <v>1.822018716326612e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>1.034124897908722e-12</v>
+        <v>8.229304465690183e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6901371209621101</v>
+        <v>0.6901371207462157</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>4.943678384435837e-12</v>
+        <v>3.934054256828272e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>2.367437500569249e-12</v>
+        <v>1.883946904595085e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8799765089031029</v>
+        <v>0.8799765100256793</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1094,13 +1094,13 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>3.958006774107675e-12</v>
+        <v>3.686524563275016e-13</v>
       </c>
       <c r="C39" t="n">
-        <v>1.94937188318773e-12</v>
+        <v>1.732378921040393e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7796147297905192</v>
+        <v>0.908125471947508</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>2.423787422335355e-12</v>
+        <v>1.928788747959114e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>9.711927796571026e-13</v>
+        <v>7.728506584274877e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6074848954147465</v>
+        <v>0.6074848948459002</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>2.486014822724514e-12</v>
+        <v>1.978307737398268e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>1.000584509107452e-12</v>
+        <v>7.962398516520734e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.936060000033575</v>
+        <v>0.9360599998512237</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>4.13040798746738e-12</v>
+        <v>3.306210112285024e-13</v>
       </c>
       <c r="C42" t="n">
-        <v>1.526416178691115e-12</v>
+        <v>1.215027023845832e-13</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9286245328491093</v>
+        <v>0.9353217084607426</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1170,13 +1170,13 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.635731932422984e-12</v>
+        <v>3.688998260390206e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>1.509928139097471e-12</v>
+        <v>1.201562635943502e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9492754242942716</v>
+        <v>0.9492754246910187</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>4.286910766962025e-12</v>
+        <v>3.411415195088128e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>1.250422908982417e-12</v>
+        <v>9.950549334159507e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8968165294869528</v>
+        <v>0.8968165299587346</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>4.180516660407301e-12</v>
+        <v>3.326749453573952e-13</v>
       </c>
       <c r="C45" t="n">
-        <v>1.081464078522723e-12</v>
+        <v>8.606017689567823e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9315327670599651</v>
+        <v>0.9315327665475189</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>3.913014656245205e-12</v>
+        <v>3.113878121938631e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>1.145052014481512e-12</v>
+        <v>9.112034414286514e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7509858426209952</v>
+        <v>0.7509858426371452</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1246,13 +1246,13 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>3.707197200297343e-12</v>
+        <v>2.950093799055216e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>1.143652462853938e-12</v>
+        <v>9.100897133037703e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8702455629737965</v>
+        <v>0.8702455634522221</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1.283939793511697e-12</v>
+        <v>2.083248365003968e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>7.163758219819864e-13</v>
+        <v>1.021428569102924e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5324017740928242</v>
+        <v>0.4526896919944172</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1284,13 +1284,13 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>2.127347211346967e-12</v>
+        <v>1.692889124944298e-13</v>
       </c>
       <c r="C49" t="n">
-        <v>9.09057961422913e-13</v>
+        <v>7.23405343104629e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9641458089433981</v>
+        <v>0.9641458095772307</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1303,13 +1303,13 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>3.317915242832229e-12</v>
+        <v>2.640313061591067e-13</v>
       </c>
       <c r="C50" t="n">
-        <v>1.220723922990417e-12</v>
+        <v>9.71421233450862e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9487512398168406</v>
+        <v>0.9487512401191867</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1322,13 +1322,13 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.41700432416564e-12</v>
+        <v>1.923390924094503e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>1.104080323843095e-12</v>
+        <v>8.785992042113345e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7478291836353211</v>
+        <v>0.7478291835378847</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>1.729383146720337e-12</v>
+        <v>2.098189638107934e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>9.010094011534039e-13</v>
+        <v>8.721815579138906e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.46604785339652</v>
+        <v>0.6904332846876717</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1360,13 +1360,13 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>6.047622028450853e-12</v>
+        <v>4.812544695878184e-13</v>
       </c>
       <c r="C53" t="n">
-        <v>3.130492053659036e-12</v>
+        <v>2.491166424165825e-13</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7426854189140732</v>
+        <v>0.7426854184412457</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1379,13 +1379,13 @@
         <v>4.4601</v>
       </c>
       <c r="B54" t="n">
-        <v>2.563505930770686e-12</v>
+        <v>6.203770378173861e-13</v>
       </c>
       <c r="C54" t="n">
-        <v>1.536927732018939e-12</v>
+        <v>3.404449951966301e-13</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4161091649570113</v>
+        <v>0.8492815174147409</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         <v>4.47</v>
       </c>
       <c r="B55" t="n">
-        <v>8.113873728168528e-12</v>
+        <v>6.456815556216651e-13</v>
       </c>
       <c r="C55" t="n">
-        <v>5.660287963809126e-12</v>
+        <v>4.504314044052498e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4059143911295557</v>
+        <v>0.4059143907266795</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         <v>4.478</v>
       </c>
       <c r="B56" t="n">
-        <v>2.032028827102403e-12</v>
+        <v>3.786056709942284e-13</v>
       </c>
       <c r="C56" t="n">
-        <v>1.200810329705304e-12</v>
+        <v>2.593791030791814e-13</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6141780289107852</v>
+        <v>0.6082390522308867</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>4.4861</v>
       </c>
       <c r="B57" t="n">
-        <v>4.47092077231976e-12</v>
+        <v>3.557845705614013e-13</v>
       </c>
       <c r="C57" t="n">
-        <v>2.112714721853142e-12</v>
+        <v>1.681244954708739e-13</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9782680332432524</v>
+        <v>0.9782680332095006</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         <v>4.4882</v>
       </c>
       <c r="B58" t="n">
-        <v>2.005348000937964e-12</v>
+        <v>1.595805235290158e-13</v>
       </c>
       <c r="C58" t="n">
-        <v>8.261970182334513e-13</v>
+        <v>6.574666960178092e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>0.886358709901817</v>
+        <v>0.8863587102582757</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1474,13 +1474,13 @@
         <v>4.4901</v>
       </c>
       <c r="B59" t="n">
-        <v>3.41983748588491e-12</v>
+        <v>4.198903393931901e-13</v>
       </c>
       <c r="C59" t="n">
-        <v>1.689536504407502e-12</v>
+        <v>2.108352679364674e-13</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6713540408279863</v>
+        <v>0.6977367862888848</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1493,13 +1493,13 @@
         <v>4.4922</v>
       </c>
       <c r="B60" t="n">
-        <v>2.185337561617224e-12</v>
+        <v>1.739036374442736e-13</v>
       </c>
       <c r="C60" t="n">
-        <v>8.851528212483146e-13</v>
+        <v>7.043822321278734e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8532605975540558</v>
+        <v>0.8532605971961946</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         <v>4.495</v>
       </c>
       <c r="B61" t="n">
-        <v>2.902442121041197e-12</v>
+        <v>2.885219369266692e-13</v>
       </c>
       <c r="C61" t="n">
-        <v>1.326914542740791e-12</v>
+        <v>1.107213290888914e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5463863478974842</v>
+        <v>0.9937802830209627</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
         <v>4.5</v>
       </c>
       <c r="B62" t="n">
-        <v>1.606608541098338e-12</v>
+        <v>2.294866682006058e-13</v>
       </c>
       <c r="C62" t="n">
-        <v>6.720516162227703e-13</v>
+        <v>1.11908639583762e-13</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8345941482727816</v>
+        <v>0.9431305850576671</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1550,13 +1550,13 @@
         <v>4.5102</v>
       </c>
       <c r="B63" t="n">
-        <v>2.363324001443562e-12</v>
+        <v>1.880673487946159e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>1.058823819863952e-12</v>
+        <v>8.425852250860811e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6847904562006888</v>
+        <v>0.6847904571197152</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         <v>4.5122</v>
       </c>
       <c r="B64" t="n">
-        <v>3.596350858800148e-12</v>
+        <v>2.861885082368574e-13</v>
       </c>
       <c r="C64" t="n">
-        <v>1.466039551324989e-12</v>
+        <v>1.166637206976941e-13</v>
       </c>
       <c r="D64" t="n">
-        <v>0.920855739845748</v>
+        <v>0.920855740079208</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1588,13 +1588,13 @@
         <v>4.5151</v>
       </c>
       <c r="B65" t="n">
-        <v>3.283291022402008e-12</v>
+        <v>2.612759979774397e-13</v>
       </c>
       <c r="C65" t="n">
-        <v>1.57342243894547e-12</v>
+        <v>1.252089794009201e-13</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6757719139426811</v>
+        <v>0.6757719144968051</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1607,13 +1607,13 @@
         <v>4.5201</v>
       </c>
       <c r="B66" t="n">
-        <v>4.414524941054078e-12</v>
+        <v>3.512967323986003e-13</v>
       </c>
       <c r="C66" t="n">
-        <v>1.818357496382447e-12</v>
+        <v>1.447002917689067e-13</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6508924339373077</v>
+        <v>0.6508924324209673</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1626,13 +1626,13 @@
         <v>4.5252</v>
       </c>
       <c r="B67" t="n">
-        <v>3.710514046424265e-11</v>
+        <v>2.952733258725667e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>1.878802453564504e-11</v>
+        <v>1.495103487483322e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8276262325113277</v>
+        <v>0.8276262329448674</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>4.5294</v>
       </c>
       <c r="B68" t="n">
-        <v>4.76271385176177e-13</v>
+        <v>2.515914780701845e-13</v>
       </c>
       <c r="C68" t="n">
-        <v>8.2117218688084e-13</v>
+        <v>1.939928696245589e-13</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4697683665746527</v>
+        <v>0.5593375273618609</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         <v>4.5351</v>
       </c>
       <c r="B69" t="n">
-        <v>1.520129822196146e-11</v>
+        <v>1.209680881502596e-12</v>
       </c>
       <c r="C69" t="n">
-        <v>1.154382838115913e-11</v>
+        <v>9.186286736476511e-13</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3869729112216975</v>
+        <v>0.3869729112050256</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>4.5402</v>
       </c>
       <c r="B70" t="n">
-        <v>5.673325737871594e-12</v>
+        <v>2.670613432439536e-12</v>
       </c>
       <c r="C70" t="n">
-        <v>9.748951487224805e-12</v>
+        <v>1.363586746753168e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2230826125106993</v>
+        <v>0.9655917495727132</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         <v>4.5498</v>
       </c>
       <c r="B71" t="n">
-        <v>4.276274214699003e-12</v>
+        <v>3.402950892102831e-13</v>
       </c>
       <c r="C71" t="n">
-        <v>2.05651416581402e-12</v>
+        <v>1.636521973674031e-13</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4628075529608099</v>
+        <v>0.4628075512359771</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         <v>4.5602</v>
       </c>
       <c r="B72" t="n">
-        <v>1.155261126886504e-11</v>
+        <v>9.664873157233216e-13</v>
       </c>
       <c r="C72" t="n">
-        <v>5.686003638310777e-12</v>
+        <v>4.570696408474105e-13</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7979804590664574</v>
+        <v>0.7862314570031961</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
         <v>4.5701</v>
       </c>
       <c r="B73" t="n">
-        <v>3.285821355275371e-11</v>
+        <v>2.614773553543948e-12</v>
       </c>
       <c r="C73" t="n">
-        <v>1.715729894354693e-11</v>
+        <v>1.365334468338664e-12</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5115172441332303</v>
+        <v>0.5115172432242234</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1759,13 +1759,13 @@
         <v>4.58</v>
       </c>
       <c r="B74" t="n">
-        <v>2.186125502225351e-11</v>
+        <v>1.971270339382462e-12</v>
       </c>
       <c r="C74" t="n">
-        <v>1.181417195362241e-11</v>
+        <v>9.684416404947448e-13</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6048939102414448</v>
+        <v>0.9118148422474435</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>4.5901</v>
       </c>
       <c r="B75" t="n">
-        <v>5.26873228104867e-12</v>
+        <v>3.953177866139841e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>2.53820333991686e-12</v>
+        <v>7.26119342405508e-13</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7166075479384568</v>
+        <v>0.4147040797951642</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1797,13 +1797,13 @@
         <v>4.6003</v>
       </c>
       <c r="B76" t="n">
-        <v>4.295593563030212e-12</v>
+        <v>3.4183247465253e-13</v>
       </c>
       <c r="C76" t="n">
-        <v>1.91662727237269e-12</v>
+        <v>1.525203521198648e-13</v>
       </c>
       <c r="D76" t="n">
-        <v>0.807930708380538</v>
+        <v>0.8079307074144113</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         <v>4.61</v>
       </c>
       <c r="B77" t="n">
-        <v>2.112781443779439e-11</v>
+        <v>1.799790627174669e-12</v>
       </c>
       <c r="C77" t="n">
-        <v>1.195493063865463e-11</v>
+        <v>9.558610566654031e-13</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6338459329045159</v>
+        <v>0.9586623266193601</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1835,13 +1835,13 @@
         <v>4.6202</v>
       </c>
       <c r="B78" t="n">
-        <v>1.9149923873524e-11</v>
+        <v>1.52390252311737e-12</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06115499315732e-11</v>
+        <v>8.444403124940128e-13</v>
       </c>
       <c r="D78" t="n">
-        <v>0.751842881241399</v>
+        <v>0.7518428779300736</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1854,13 +1854,13 @@
         <v>4.6299</v>
       </c>
       <c r="B79" t="n">
-        <v>5.019652234603522e-12</v>
+        <v>3.994512328554511e-13</v>
       </c>
       <c r="C79" t="n">
-        <v>2.521723846309344e-12</v>
+        <v>2.006724078162435e-13</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6653527886170154</v>
+        <v>0.6653527882923417</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
         <v>4.6352</v>
       </c>
       <c r="B80" t="n">
-        <v>8.369050190036062e-12</v>
+        <v>6.659878535276351e-13</v>
       </c>
       <c r="C80" t="n">
-        <v>3.948872223739104e-12</v>
+        <v>3.142412670293371e-13</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9202303420559295</v>
+        <v>0.9202303405011968</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1892,13 +1892,13 @@
         <v>4.64</v>
       </c>
       <c r="B81" t="n">
-        <v>2.950780323703397e-12</v>
+        <v>3.587021116777961e-13</v>
       </c>
       <c r="C81" t="n">
-        <v>1.246546558522235e-12</v>
+        <v>1.526521809768054e-13</v>
       </c>
       <c r="D81" t="n">
-        <v>0.803292559687054</v>
+        <v>0.9209715699275178</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1911,13 +1911,13 @@
         <v>4.65</v>
       </c>
       <c r="B82" t="n">
-        <v>3.322306568268101e-12</v>
+        <v>2.643807561429064e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>1.738120780307943e-12</v>
+        <v>1.383152568538302e-13</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5076486806463045</v>
+        <v>0.5076486805816036</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         <v>4.6701</v>
       </c>
       <c r="B83" t="n">
-        <v>3.807677276457686e-12</v>
+        <v>4.719164533022348e-13</v>
       </c>
       <c r="C83" t="n">
-        <v>1.691750675868732e-12</v>
+        <v>2.293848104477827e-13</v>
       </c>
       <c r="D83" t="n">
-        <v>0.871660877843452</v>
+        <v>0.9378123379946317</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1949,13 +1949,13 @@
         <v>4.6802</v>
       </c>
       <c r="B84" t="n">
-        <v>3.136896188602964e-12</v>
+        <v>2.496262670847155e-13</v>
       </c>
       <c r="C84" t="n">
-        <v>1.308714339619043e-12</v>
+        <v>1.041441780335803e-13</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9172710730499927</v>
+        <v>0.9172710723849578</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         <v>4.6899</v>
       </c>
       <c r="B85" t="n">
-        <v>3.653214112328332e-12</v>
+        <v>2.907135423064162e-13</v>
       </c>
       <c r="C85" t="n">
-        <v>1.437373349943809e-12</v>
+        <v>1.143825367879011e-13</v>
       </c>
       <c r="D85" t="n">
-        <v>0.98968476814755</v>
+        <v>0.989684767971827</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1987,13 +1987,13 @@
         <v>4.71</v>
       </c>
       <c r="B86" t="n">
-        <v>7.642385805139987e-12</v>
+        <v>6.081617387113766e-13</v>
       </c>
       <c r="C86" t="n">
-        <v>1.521300644603585e-12</v>
+        <v>1.210612588710721e-13</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8581855869252116</v>
+        <v>0.8581855877161702</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>4.73</v>
       </c>
       <c r="B87" t="n">
-        <v>1.147023463385823e-11</v>
+        <v>9.127722710810205e-13</v>
       </c>
       <c r="C87" t="n">
-        <v>2.27740320987863e-12</v>
+        <v>1.812299889993946e-13</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9274193864991079</v>
+        <v>0.9274193834786838</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2025,13 +2025,13 @@
         <v>4.75</v>
       </c>
       <c r="B88" t="n">
-        <v>5.350069341774366e-12</v>
+        <v>4.257449911860408e-13</v>
       </c>
       <c r="C88" t="n">
-        <v>1.654133468645869e-12</v>
+        <v>1.3163175900198e-13</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4743637220271134</v>
+        <v>0.4743637190290626</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2044,13 +2044,13 @@
         <v>4.7552</v>
       </c>
       <c r="B89" t="n">
-        <v>3.11912875349695e-12</v>
+        <v>2.729741552391051e-13</v>
       </c>
       <c r="C89" t="n">
-        <v>1.338087527675691e-12</v>
+        <v>1.243556593180724e-13</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8599007664911629</v>
+        <v>0.7625946362689691</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         <v>4.7589</v>
       </c>
       <c r="B90" t="n">
-        <v>3.022955177861721e-12</v>
+        <v>4.883202411972994e-13</v>
       </c>
       <c r="C90" t="n">
-        <v>2.201625660895465e-12</v>
+        <v>2.433881357720109e-13</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3410518875771013</v>
+        <v>0.977541689560037</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         <v>4.77</v>
       </c>
       <c r="B91" t="n">
-        <v>4.095110970118679e-12</v>
+        <v>3.25878576895354e-13</v>
       </c>
       <c r="C91" t="n">
-        <v>1.981164109277127e-12</v>
+        <v>1.576560305335671e-13</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7785080034347549</v>
+        <v>0.7785080039122871</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2101,13 +2101,13 @@
         <v>4.775</v>
       </c>
       <c r="B92" t="n">
-        <v>5.669794126364074e-12</v>
+        <v>4.511878807242343e-13</v>
       </c>
       <c r="C92" t="n">
-        <v>2.334363378361917e-12</v>
+        <v>1.857627352221282e-13</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9103814633780855</v>
+        <v>0.9103814621319143</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2120,13 +2120,13 @@
         <v>4.7802</v>
       </c>
       <c r="B93" t="n">
-        <v>1.148798472708032e-11</v>
+        <v>9.141847783938921e-13</v>
       </c>
       <c r="C93" t="n">
-        <v>6.138978868974233e-12</v>
+        <v>4.88524416041634e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9696936286028141</v>
+        <v>0.9696936284643034</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2139,13 +2139,13 @@
         <v>4.7901</v>
       </c>
       <c r="B94" t="n">
-        <v>2.105636673986274e-12</v>
+        <v>9.485935542061441e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>1.134907354598524e-12</v>
+        <v>5.816719076328261e-13</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3951265126396333</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2158,13 +2158,13 @@
         <v>4.7999</v>
       </c>
       <c r="B95" t="n">
-        <v>3.764681559636226e-12</v>
+        <v>3.985804327532781e-13</v>
       </c>
       <c r="C95" t="n">
-        <v>2.252277686632074e-12</v>
+        <v>2.128495781472632e-13</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6857638603287981</v>
+        <v>0.6902569237423816</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         <v>4.81</v>
       </c>
       <c r="B96" t="n">
-        <v>5.310069381902726e-12</v>
+        <v>4.22561894790113e-13</v>
       </c>
       <c r="C96" t="n">
-        <v>2.455096753157971e-12</v>
+        <v>1.953703921216743e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9953907767578564</v>
+        <v>0.9953907767629226</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2196,13 +2196,13 @@
         <v>4.8122</v>
       </c>
       <c r="B97" t="n">
-        <v>3.332214016399625e-12</v>
+        <v>2.65169165903496e-13</v>
       </c>
       <c r="C97" t="n">
-        <v>1.340578118640036e-12</v>
+        <v>1.066798169751185e-13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8638629506183679</v>
+        <v>0.8638629498315711</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         <v>4.8153</v>
       </c>
       <c r="B98" t="n">
-        <v>4.124548347049254e-12</v>
+        <v>3.282211287905531e-13</v>
       </c>
       <c r="C98" t="n">
-        <v>1.655907234499597e-12</v>
+        <v>1.317729107514152e-13</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9651094871612154</v>
+        <v>0.9651094874952216</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         <v>4.8201</v>
       </c>
       <c r="B99" t="n">
-        <v>4.232572638883467e-12</v>
+        <v>3.705182972919318e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>1.621076549568449e-12</v>
+        <v>1.334058360873064e-13</v>
       </c>
       <c r="D99" t="n">
-        <v>0.867846643721343</v>
+        <v>0.9639251862333656</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2253,13 +2253,13 @@
         <v>4.8299</v>
       </c>
       <c r="B100" t="n">
-        <v>5.691258124670136e-12</v>
+        <v>4.528959311259096e-13</v>
       </c>
       <c r="C100" t="n">
-        <v>1.474472606353025e-12</v>
+        <v>1.173348018615716e-13</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9485890400415798</v>
+        <v>0.9485890397322102</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2272,13 +2272,13 @@
         <v>4.85</v>
       </c>
       <c r="B101" t="n">
-        <v>5.819230650882834e-12</v>
+        <v>4.630796617201797e-13</v>
       </c>
       <c r="C101" t="n">
-        <v>1.240974141723078e-12</v>
+        <v>9.87535845299617e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9140229172540656</v>
+        <v>0.9140229170466292</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2291,13 +2291,13 @@
         <v>4.8663</v>
       </c>
       <c r="B102" t="n">
-        <v>1.292754329605626e-11</v>
+        <v>1.028741208329394e-12</v>
       </c>
       <c r="C102" t="n">
-        <v>1.784090017283187e-12</v>
+        <v>1.419733726698783e-13</v>
       </c>
       <c r="D102" t="n">
-        <v>0.354624931743291</v>
+        <v>0.3546249293022584</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2310,13 +2310,13 @@
         <v>4.8899</v>
       </c>
       <c r="B103" t="n">
-        <v>1.092476988064041e-11</v>
+        <v>8.693655653455929e-13</v>
       </c>
       <c r="C103" t="n">
-        <v>1.362639477119859e-12</v>
+        <v>1.084354042472999e-13</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7065297033610138</v>
+        <v>0.7065296971309301</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2329,13 +2329,13 @@
         <v>4.8999</v>
       </c>
       <c r="B104" t="n">
-        <v>6.569812945949387e-12</v>
+        <v>5.228091027839776e-13</v>
       </c>
       <c r="C104" t="n">
-        <v>2.197151298328169e-12</v>
+        <v>1.748437447901876e-13</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7388892973523269</v>
+        <v>0.7388892977972281</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2348,13 +2348,13 @@
         <v>4.9101</v>
       </c>
       <c r="B105" t="n">
-        <v>6.657995727998969e-12</v>
+        <v>5.298264656419171e-13</v>
       </c>
       <c r="C105" t="n">
-        <v>1.998609921384821e-12</v>
+        <v>1.590443240614446e-13</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8339312600425891</v>
+        <v>0.8339312597306794</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         <v>4.92</v>
       </c>
       <c r="B106" t="n">
-        <v>3.567134874125559e-12</v>
+        <v>2.838635737316896e-13</v>
       </c>
       <c r="C106" t="n">
-        <v>1.787479244924055e-12</v>
+        <v>1.422430787875757e-13</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7230488335062129</v>
+        <v>0.7230488338745653</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>4.9262</v>
       </c>
       <c r="B107" t="n">
-        <v>3.156363428551179e-12</v>
+        <v>2.511754208427213e-13</v>
       </c>
       <c r="C107" t="n">
-        <v>1.146869448105446e-12</v>
+        <v>9.126497078150706e-14</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8166775430562017</v>
+        <v>0.8166775441818228</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2405,13 +2405,13 @@
         <v>4.9302</v>
       </c>
       <c r="B108" t="n">
-        <v>4.748786956133269e-12</v>
+        <v>3.77896458766103e-13</v>
       </c>
       <c r="C108" t="n">
-        <v>1.693903683451763e-12</v>
+        <v>1.347965720474141e-13</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9534224326968379</v>
+        <v>0.953422432317459</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2424,13 +2424,13 @@
         <v>4.9369</v>
       </c>
       <c r="B109" t="n">
-        <v>4.773580345721664e-12</v>
+        <v>3.798694539667617e-13</v>
       </c>
       <c r="C109" t="n">
-        <v>1.422471042481423e-12</v>
+        <v>1.13196649022295e-13</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0818140821932879</v>
+        <v>0.08181408061186453</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2443,13 +2443,13 @@
         <v>4.9467</v>
       </c>
       <c r="B110" t="n">
-        <v>6.904145922384053e-12</v>
+        <v>5.494144756765636e-13</v>
       </c>
       <c r="C110" t="n">
-        <v>1.665392998378373e-12</v>
+        <v>1.325277639841103e-13</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8863726488578035</v>
+        <v>0.8863726501014069</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         <v>4.9503</v>
       </c>
       <c r="B111" t="n">
-        <v>7.384685798766283e-12</v>
+        <v>5.876546234227112e-13</v>
       </c>
       <c r="C111" t="n">
-        <v>2.123799116554179e-12</v>
+        <v>1.690065638252076e-13</v>
       </c>
       <c r="D111" t="n">
-        <v>0.707064161017023</v>
+        <v>0.707064162327345</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
         <v>4.9568</v>
       </c>
       <c r="B112" t="n">
-        <v>5.107288315489431e-12</v>
+        <v>4.064250907422538e-13</v>
       </c>
       <c r="C112" t="n">
-        <v>1.87345861124414e-12</v>
+        <v>1.490850993048223e-13</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9373014749507932</v>
+        <v>0.937301474915134</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2500,13 +2500,13 @@
         <v>4.9619</v>
       </c>
       <c r="B113" t="n">
-        <v>1.097313176339954e-11</v>
+        <v>8.732140814132105e-13</v>
       </c>
       <c r="C113" t="n">
-        <v>2.149247387064077e-12</v>
+        <v>1.710316727062735e-13</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8293034089078148</v>
+        <v>0.8293034060057224</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2519,13 +2519,13 @@
         <v>4.9647</v>
       </c>
       <c r="B114" t="n">
-        <v>1.098318053206283e-11</v>
+        <v>8.740137353854902e-13</v>
       </c>
       <c r="C114" t="n">
-        <v>2.511453046183403e-12</v>
+        <v>1.998550832094905e-13</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5770857973493562</v>
+        <v>0.5770857986434166</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2538,13 +2538,13 @@
         <v>4.9679</v>
       </c>
       <c r="B115" t="n">
-        <v>1.219929803179491e-11</v>
+        <v>9.707892914222769e-13</v>
       </c>
       <c r="C115" t="n">
-        <v>2.338018433243823e-12</v>
+        <v>1.860535953110684e-13</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9913471602369913</v>
+        <v>0.9913471610800195</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         <v>4.97</v>
       </c>
       <c r="B116" t="n">
-        <v>1.0158018055519e-11</v>
+        <v>8.083493930425745e-13</v>
       </c>
       <c r="C116" t="n">
-        <v>2.980280583621388e-12</v>
+        <v>2.371631932363311e-13</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9655693789884445</v>
+        <v>0.9655693790544726</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2576,13 +2576,13 @@
         <v>4.9728</v>
       </c>
       <c r="B117" t="n">
-        <v>1.473855975932842e-11</v>
+        <v>1.172857320952997e-12</v>
       </c>
       <c r="C117" t="n">
-        <v>2.372026871387377e-12</v>
+        <v>1.887599009148432e-13</v>
       </c>
       <c r="D117" t="n">
-        <v>0.99036405526187</v>
+        <v>0.9903640560103709</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2595,13 +2595,13 @@
         <v>4.9746</v>
       </c>
       <c r="B118" t="n">
-        <v>1.543911937433153e-11</v>
+        <v>1.228606080238257e-12</v>
       </c>
       <c r="C118" t="n">
-        <v>2.764420661027812e-12</v>
+        <v>2.199856063335745e-13</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7776299301185174</v>
+        <v>0.7776299323542006</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2614,13 +2614,13 @@
         <v>4.9847</v>
       </c>
       <c r="B119" t="n">
-        <v>1.93003063524658e-11</v>
+        <v>1.535869580118807e-12</v>
       </c>
       <c r="C119" t="n">
-        <v>2.497798105293857e-12</v>
+        <v>1.987684576870516e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01637961841188463</v>
+        <v>0.0163796183665548</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2633,13 +2633,13 @@
         <v>4.9901</v>
       </c>
       <c r="B120" t="n">
-        <v>1.656349750997448e-11</v>
+        <v>1.318081250895365e-12</v>
       </c>
       <c r="C120" t="n">
-        <v>3.040005126336896e-12</v>
+        <v>2.419159213772096e-13</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2635281721929978</v>
+        <v>0.2635281758371582</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2652,13 +2652,13 @@
         <v>4.9947</v>
       </c>
       <c r="B121" t="n">
-        <v>1.996204767035159e-11</v>
+        <v>1.58852928187938e-12</v>
       </c>
       <c r="C121" t="n">
-        <v>2.51575060474433e-12</v>
+        <v>2.001970721899114e-13</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6587266716336195</v>
+        <v>0.6587266785715302</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>5.0046</v>
       </c>
       <c r="B122" t="n">
-        <v>1.995294950245299e-11</v>
+        <v>1.587805270793682e-12</v>
       </c>
       <c r="C122" t="n">
-        <v>1.943034797953483e-12</v>
+        <v>1.546217963524146e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0438036430926919</v>
+        <v>0.04380364380952666</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2690,13 +2690,13 @@
         <v>5.01</v>
       </c>
       <c r="B123" t="n">
-        <v>1.944757867283201e-11</v>
+        <v>1.547589139068341e-12</v>
       </c>
       <c r="C123" t="n">
-        <v>2.808234747587103e-12</v>
+        <v>2.234722206009657e-13</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6993917171917468</v>
+        <v>0.6993917164462418</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         <v>5.0148</v>
       </c>
       <c r="B124" t="n">
-        <v>1.497156475678121e-11</v>
+        <v>1.191399269657286e-12</v>
       </c>
       <c r="C124" t="n">
-        <v>2.189539042556731e-12</v>
+        <v>1.742379807764193e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8941468641850751</v>
+        <v>0.8941468625576683</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2728,13 +2728,13 @@
         <v>5.0177</v>
       </c>
       <c r="B125" t="n">
-        <v>1.242986985624305e-11</v>
+        <v>9.891376142818098e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>3.07881993624378e-12</v>
+        <v>2.450047058033896e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9829872784064952</v>
+        <v>0.9829872789323811</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         <v>5.0179</v>
       </c>
       <c r="B126" t="n">
-        <v>1.276767694877219e-11</v>
+        <v>1.016019449214218e-12</v>
       </c>
       <c r="C126" t="n">
-        <v>2.183303808721977e-12</v>
+        <v>1.737417965923796e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1106480087489018</v>
+        <v>0.1106480067674023</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2766,13 +2766,13 @@
         <v>5.0198</v>
       </c>
       <c r="B127" t="n">
-        <v>1.099347483107731e-11</v>
+        <v>8.748329301450283e-13</v>
       </c>
       <c r="C127" t="n">
-        <v>2.915227210045799e-12</v>
+        <v>2.319864102301453e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7705209114566992</v>
+        <v>0.7705209123985063</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
         <v>5.0248</v>
       </c>
       <c r="B128" t="n">
-        <v>4.475448485420372e-12</v>
+        <v>3.5614487436135e-13</v>
       </c>
       <c r="C128" t="n">
-        <v>1.699568940161759e-12</v>
+        <v>1.352473990451126e-13</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8728594812830199</v>
+        <v>0.8728594817391356</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2804,13 +2804,13 @@
         <v>5.0278</v>
       </c>
       <c r="B129" t="n">
-        <v>5.531513230289627e-12</v>
+        <v>4.401838367270185e-13</v>
       </c>
       <c r="C129" t="n">
-        <v>2.873604654814408e-12</v>
+        <v>2.286741926954129e-13</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7158166108354375</v>
+        <v>0.7158166104866883</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         <v>5.0301</v>
       </c>
       <c r="B130" t="n">
-        <v>6.31583693331219e-12</v>
+        <v>5.025983349508067e-13</v>
       </c>
       <c r="C130" t="n">
-        <v>2.916368632454698e-12</v>
+        <v>2.32077241644649e-13</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9054083546133953</v>
+        <v>0.9054083532928037</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2842,13 +2842,13 @@
         <v>5.0328</v>
       </c>
       <c r="B131" t="n">
-        <v>7.458364206996767e-12</v>
+        <v>5.935177656221416e-13</v>
       </c>
       <c r="C131" t="n">
-        <v>3.362420588410705e-12</v>
+        <v>2.675729284572467e-13</v>
       </c>
       <c r="D131" t="n">
-        <v>0.810740220069208</v>
+        <v>0.8107402189634967</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2861,13 +2861,13 @@
         <v>5.0359</v>
       </c>
       <c r="B132" t="n">
-        <v>5.3596858562856e-12</v>
+        <v>4.265102486277112e-13</v>
       </c>
       <c r="C132" t="n">
-        <v>2.151165145209437e-12</v>
+        <v>1.711842831995074e-13</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9615821857723342</v>
+        <v>0.9615821857332607</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2880,13 +2880,13 @@
         <v>5.0387</v>
       </c>
       <c r="B133" t="n">
-        <v>2.975272453649327e-12</v>
+        <v>2.367646590102225e-13</v>
       </c>
       <c r="C133" t="n">
-        <v>1.414645247370444e-12</v>
+        <v>1.125738919606186e-13</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7651524865368842</v>
+        <v>0.7651524865704298</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
         <v>5.042</v>
       </c>
       <c r="B134" t="n">
-        <v>7.435985200269191e-12</v>
+        <v>5.917369010658063e-13</v>
       </c>
       <c r="C134" t="n">
-        <v>3.571870324603174e-12</v>
+        <v>2.842404089912457e-13</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7082884146310116</v>
+        <v>0.7082884142826456</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2918,13 +2918,13 @@
         <v>5.0448</v>
       </c>
       <c r="B135" t="n">
-        <v>7.537468787336209e-12</v>
+        <v>5.998127086053756e-13</v>
       </c>
       <c r="C135" t="n">
-        <v>3.386367948573267e-12</v>
+        <v>2.694785986445049e-13</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9538509320511918</v>
+        <v>0.9538509317926361</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2937,13 +2937,13 @@
         <v>5.05</v>
       </c>
       <c r="B136" t="n">
-        <v>4.732094822059578e-12</v>
+        <v>3.765681417723856e-13</v>
       </c>
       <c r="C136" t="n">
-        <v>2.283124183903315e-12</v>
+        <v>1.816852499648175e-13</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8055944569505482</v>
+        <v>0.805594456377361</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2956,13 +2956,13 @@
         <v>5.0548</v>
       </c>
       <c r="B137" t="n">
-        <v>3.79474800225615e-12</v>
+        <v>3.01976451050949e-13</v>
       </c>
       <c r="C137" t="n">
-        <v>1.660864092157302e-12</v>
+        <v>1.321673650917346e-13</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9001834337038492</v>
+        <v>0.9001834341564948</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2975,13 +2975,13 @@
         <v>5.0649</v>
       </c>
       <c r="B138" t="n">
-        <v>6.943855148419621e-12</v>
+        <v>5.525744350530595e-13</v>
       </c>
       <c r="C138" t="n">
-        <v>2.497701536315464e-12</v>
+        <v>1.98760773035547e-13</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8495349755408798</v>
+        <v>0.8495349779551854</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         <v>5.0699</v>
       </c>
       <c r="B139" t="n">
-        <v>6.511366969013154e-12</v>
+        <v>5.181581202972845e-13</v>
       </c>
       <c r="C139" t="n">
-        <v>2.968944034431089e-12</v>
+        <v>2.362610595127055e-13</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8887983983037123</v>
+        <v>0.8887983974075824</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3013,13 +3013,13 @@
         <v>5.0745</v>
       </c>
       <c r="B140" t="n">
-        <v>1.259241860133653e-11</v>
+        <v>1.002072832557452e-12</v>
       </c>
       <c r="C140" t="n">
-        <v>2.544511247595864e-12</v>
+        <v>2.024857714052771e-13</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9681686932367262</v>
+        <v>0.9681686919096857</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3032,13 +3032,13 @@
         <v>5.0842</v>
       </c>
       <c r="B141" t="n">
-        <v>7.509763563752493e-12</v>
+        <v>5.976079958811205e-13</v>
       </c>
       <c r="C141" t="n">
-        <v>2.240577087583043e-12</v>
+        <v>1.78299459493771e-13</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8071341555089023</v>
+        <v>0.8071341583128304</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         <v>5.09</v>
       </c>
       <c r="B142" t="n">
-        <v>5.775752202616045e-12</v>
+        <v>4.59619755811596e-13</v>
       </c>
       <c r="C142" t="n">
-        <v>2.024160761564212e-12</v>
+        <v>1.610775953286792e-13</v>
       </c>
       <c r="D142" t="n">
-        <v>0.949499065711322</v>
+        <v>0.9494990661945913</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3070,13 +3070,13 @@
         <v>5.0937</v>
       </c>
       <c r="B143" t="n">
-        <v>4.37463104332308e-12</v>
+        <v>3.481220770727057e-13</v>
       </c>
       <c r="C143" t="n">
-        <v>1.960649907152418e-12</v>
+        <v>1.560235619296277e-13</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8893576465224696</v>
+        <v>0.8893576461486712</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
         <v>5.0968</v>
       </c>
       <c r="B144" t="n">
-        <v>3.532459575146227e-12</v>
+        <v>2.811042011168686e-13</v>
       </c>
       <c r="C144" t="n">
-        <v>1.406416366265701e-12</v>
+        <v>1.11919058255017e-13</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7945953474258356</v>
+        <v>0.7945953482766978</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3108,13 +3108,13 @@
         <v>5.0989</v>
       </c>
       <c r="B145" t="n">
-        <v>6.200738801161837e-12</v>
+        <v>4.934391156927986e-13</v>
       </c>
       <c r="C145" t="n">
-        <v>3.014815027670666e-12</v>
+        <v>2.399113572032997e-13</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7446383965092382</v>
+        <v>0.7446383947220006</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3127,13 +3127,13 @@
         <v>5.1</v>
       </c>
       <c r="B146" t="n">
-        <v>6.443064790201135e-12</v>
+        <v>5.127228045874081e-13</v>
       </c>
       <c r="C146" t="n">
-        <v>2.771683516918721e-12</v>
+        <v>2.205635661094941e-13</v>
       </c>
       <c r="D146" t="n">
-        <v>0.802979684100857</v>
+        <v>0.802979683296227</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         <v>5.1004</v>
       </c>
       <c r="B147" t="n">
-        <v>6.464644368768917e-12</v>
+        <v>7.669991757702625e-13</v>
       </c>
       <c r="C147" t="n">
-        <v>2.916258466880969e-12</v>
+        <v>3.815738815475407e-13</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6846354795610341</v>
+        <v>0.672169180987256</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3165,13 +3165,13 @@
         <v>5.1007</v>
       </c>
       <c r="B148" t="n">
-        <v>9.626194213287936e-12</v>
+        <v>7.660281965986609e-13</v>
       </c>
       <c r="C148" t="n">
-        <v>4.47670570327191e-12</v>
+        <v>3.562449210258485e-13</v>
       </c>
       <c r="D148" t="n">
-        <v>0.938485489600029</v>
+        <v>0.9384854892595603</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3184,13 +3184,13 @@
         <v>5.1029</v>
       </c>
       <c r="B149" t="n">
-        <v>4.180935324238716e-12</v>
+        <v>3.32708261818663e-13</v>
       </c>
       <c r="C149" t="n">
-        <v>2.126962337765585e-12</v>
+        <v>1.69258284883304e-13</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6795438036987417</v>
+        <v>0.6795438034007732</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3203,13 +3203,13 @@
         <v>5.1049</v>
       </c>
       <c r="B150" t="n">
-        <v>9.741652017683193e-12</v>
+        <v>7.752160371424959e-13</v>
       </c>
       <c r="C150" t="n">
-        <v>4.552586306848577e-12</v>
+        <v>3.622833077062432e-13</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9830700099463866</v>
+        <v>0.9830700096500339</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3222,13 +3222,13 @@
         <v>5.1069</v>
       </c>
       <c r="B151" t="n">
-        <v>8.692945875561339e-12</v>
+        <v>6.917626540250429e-13</v>
       </c>
       <c r="C151" t="n">
-        <v>4.509880244661971e-12</v>
+        <v>3.588848658018353e-13</v>
       </c>
       <c r="D151" t="n">
-        <v>0.81609402042163</v>
+        <v>0.816094020235326</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3241,13 +3241,13 @@
         <v>5.1088</v>
       </c>
       <c r="B152" t="n">
-        <v>4.16362053896448e-12</v>
+        <v>3.313303944660063e-13</v>
       </c>
       <c r="C152" t="n">
-        <v>1.901414487980676e-12</v>
+        <v>1.513097573307134e-13</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6004275230467977</v>
+        <v>0.6004275225689153</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         <v>5.11</v>
       </c>
       <c r="B153" t="n">
-        <v>5.676284519309632e-12</v>
+        <v>4.517043703608349e-13</v>
       </c>
       <c r="C153" t="n">
-        <v>2.939092729982202e-12</v>
+        <v>2.338855684103304e-13</v>
       </c>
       <c r="D153" t="n">
-        <v>0.8155784710948845</v>
+        <v>0.8155784723044481</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         <v>5.1108</v>
       </c>
       <c r="B154" t="n">
-        <v>4.333443653100894e-12</v>
+        <v>3.448444892666271e-13</v>
       </c>
       <c r="C154" t="n">
-        <v>1.836146954502943e-12</v>
+        <v>1.461159319621538e-13</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8127046786141701</v>
+        <v>0.8127046788058985</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3298,13 +3298,13 @@
         <v>5.1138</v>
       </c>
       <c r="B155" t="n">
-        <v>5.521428340580906e-12</v>
+        <v>4.771498996036841e-13</v>
       </c>
       <c r="C155" t="n">
-        <v>2.714964152149697e-12</v>
+        <v>2.201993134793118e-13</v>
       </c>
       <c r="D155" t="n">
-        <v>0.69536949181195</v>
+        <v>0.7205563266266051</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3317,13 +3317,13 @@
         <v>5.1188</v>
       </c>
       <c r="B156" t="n">
-        <v>6.750019265549192e-12</v>
+        <v>5.371494659992725e-13</v>
       </c>
       <c r="C156" t="n">
-        <v>3.806559176508993e-12</v>
+        <v>3.029163542836958e-13</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6777900935369067</v>
+        <v>0.6777900906762435</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         <v>5.1238</v>
       </c>
       <c r="B157" t="n">
-        <v>1.192750814766202e-11</v>
+        <v>9.491609396970756e-13</v>
       </c>
       <c r="C157" t="n">
-        <v>4.695338702698169e-12</v>
+        <v>3.736431814574831e-13</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9956386612536314</v>
+        <v>0.9956386612890085</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3355,13 +3355,13 @@
         <v>5.1285</v>
       </c>
       <c r="B158" t="n">
-        <v>5.660862524941578e-12</v>
+        <v>4.504771266294523e-13</v>
       </c>
       <c r="C158" t="n">
-        <v>2.330343189697794e-12</v>
+        <v>1.854428189456349e-13</v>
       </c>
       <c r="D158" t="n">
-        <v>0.709526016767811</v>
+        <v>0.7095260177226574</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3374,13 +3374,13 @@
         <v>5.1299</v>
       </c>
       <c r="B159" t="n">
-        <v>6.59400948217526e-12</v>
+        <v>5.247346011064459e-13</v>
       </c>
       <c r="C159" t="n">
-        <v>2.953274937702407e-12</v>
+        <v>2.35014152407666e-13</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8523390518540117</v>
+        <v>0.8523390522224356</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
         <v>5.1338</v>
       </c>
       <c r="B160" t="n">
-        <v>7.496037717317463e-12</v>
+        <v>5.965157272655167e-13</v>
       </c>
       <c r="C160" t="n">
-        <v>2.956615481522647e-12</v>
+        <v>2.352799841024731e-13</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9411790046048322</v>
+        <v>0.9411790055200353</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3412,13 +3412,13 @@
         <v>5.1389</v>
       </c>
       <c r="B161" t="n">
-        <v>8.008049730493686e-12</v>
+        <v>6.372603497018109e-13</v>
       </c>
       <c r="C161" t="n">
-        <v>3.019241561367504e-12</v>
+        <v>2.402636093574725e-13</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9881704195071136</v>
+        <v>0.9881704194762145</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         <v>5.1417</v>
       </c>
       <c r="B162" t="n">
-        <v>8.667717254231788e-12</v>
+        <v>6.897550227148236e-13</v>
       </c>
       <c r="C162" t="n">
-        <v>3.349300884549495e-12</v>
+        <v>2.665288958290716e-13</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9561675147210984</v>
+        <v>0.9561675157385394</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3450,13 +3450,13 @@
         <v>5.1447</v>
       </c>
       <c r="B163" t="n">
-        <v>1.094482959188551e-11</v>
+        <v>8.709618666003296e-13</v>
       </c>
       <c r="C163" t="n">
-        <v>4.501562295003503e-12</v>
+        <v>3.582229458240832e-13</v>
       </c>
       <c r="D163" t="n">
-        <v>0.993763412722438</v>
+        <v>0.993763412469128</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3469,13 +3469,13 @@
         <v>5.148</v>
       </c>
       <c r="B164" t="n">
-        <v>1.314426995173432e-11</v>
+        <v>1.045987767821071e-12</v>
       </c>
       <c r="C164" t="n">
-        <v>4.883819847267356e-12</v>
+        <v>3.886420356016137e-13</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9917547044495268</v>
+        <v>0.9917547044821378</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3488,13 +3488,13 @@
         <v>5.15</v>
       </c>
       <c r="B165" t="n">
-        <v>1.370291906111041e-11</v>
+        <v>1.090443651746488e-12</v>
       </c>
       <c r="C165" t="n">
-        <v>5.846780635988541e-12</v>
+        <v>4.652720196973077e-13</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8689985164163094</v>
+        <v>0.8689985169074261</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3507,13 +3507,13 @@
         <v>5.151</v>
       </c>
       <c r="B166" t="n">
-        <v>6.987286630636507e-12</v>
+        <v>5.560306025250625e-13</v>
       </c>
       <c r="C166" t="n">
-        <v>2.754014455477128e-12</v>
+        <v>2.191575072244606e-13</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6681737975873954</v>
+        <v>0.6681737981702167</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         <v>5.157</v>
       </c>
       <c r="B167" t="n">
-        <v>1.276812590742266e-11</v>
+        <v>1.016055176426798e-12</v>
       </c>
       <c r="C167" t="n">
-        <v>3.837200941230386e-12</v>
+        <v>3.053547490857803e-13</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5267385912577394</v>
+        <v>0.5267385889085405</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3545,13 +3545,13 @@
         <v>5.1594</v>
       </c>
       <c r="B168" t="n">
-        <v>1.555880493214392e-11</v>
+        <v>1.238130354101473e-12</v>
       </c>
       <c r="C168" t="n">
-        <v>3.347167356677808e-12</v>
+        <v>2.66359115191006e-13</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9736162204613409</v>
+        <v>0.9736162204766965</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3564,13 +3564,13 @@
         <v>5.17</v>
       </c>
       <c r="B169" t="n">
-        <v>1.5834221406441e-11</v>
+        <v>1.260047302817536e-12</v>
       </c>
       <c r="C169" t="n">
-        <v>4.470160804407958e-12</v>
+        <v>3.557240943888073e-13</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9345910096824742</v>
+        <v>0.9345910086739578</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3583,13 +3583,13 @@
         <v>5.1898</v>
       </c>
       <c r="B170" t="n">
-        <v>1.717152606741688e-11</v>
+        <v>1.366466627497713e-12</v>
       </c>
       <c r="C170" t="n">
-        <v>3.1279643173935e-12</v>
+        <v>2.489154914514397e-13</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9623457152827573</v>
+        <v>0.9623457143262217</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3602,13 +3602,13 @@
         <v>5.21</v>
       </c>
       <c r="B171" t="n">
-        <v>1.670105629673596e-11</v>
+        <v>1.329027835708618e-12</v>
       </c>
       <c r="C171" t="n">
-        <v>3.808339284803009e-12</v>
+        <v>3.030580108874619e-13</v>
       </c>
       <c r="D171" t="n">
-        <v>0.7130049336713751</v>
+        <v>0.7130049313813507</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3621,13 +3621,13 @@
         <v>5.23</v>
       </c>
       <c r="B172" t="n">
-        <v>1.01794408580687e-11</v>
+        <v>8.100541654905672e-13</v>
       </c>
       <c r="C172" t="n">
-        <v>3.857172473548332e-12</v>
+        <v>3.069440328821258e-13</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9791894693022097</v>
+        <v>0.9791894693432595</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3640,13 +3640,13 @@
         <v>5.2395</v>
       </c>
       <c r="B173" t="n">
-        <v>1.050707749613684e-11</v>
+        <v>8.36126661765353e-13</v>
       </c>
       <c r="C173" t="n">
-        <v>2.986148322186895e-12</v>
+        <v>2.376301330585766e-13</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9617245375520146</v>
+        <v>0.9617245377260853</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3659,13 +3659,13 @@
         <v>5.2431</v>
       </c>
       <c r="B174" t="n">
-        <v>9.475860303189843e-12</v>
+        <v>7.540650024995294e-13</v>
       </c>
       <c r="C174" t="n">
-        <v>4.012462353764621e-12</v>
+        <v>3.193016081885039e-13</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7059948730324639</v>
+        <v>0.7059948723652183</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>5.2501</v>
       </c>
       <c r="B175" t="n">
-        <v>8.662037937292886e-12</v>
+        <v>6.893030770975534e-13</v>
       </c>
       <c r="C175" t="n">
-        <v>3.833684729644691e-12</v>
+        <v>3.050749375258443e-13</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8780708688873515</v>
+        <v>0.8780708682322853</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
         <v>5.2599</v>
       </c>
       <c r="B176" t="n">
-        <v>6.212710264440432e-12</v>
+        <v>4.943917744046296e-13</v>
       </c>
       <c r="C176" t="n">
-        <v>2.411938807783654e-12</v>
+        <v>1.919359919170799e-13</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8785747297141607</v>
+        <v>0.8785747280969318</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3716,13 +3716,13 @@
         <v>5.265</v>
       </c>
       <c r="B177" t="n">
-        <v>1.636134839133242e-11</v>
+        <v>1.301994735262014e-12</v>
       </c>
       <c r="C177" t="n">
-        <v>7.192617024471799e-12</v>
+        <v>5.723702755773638e-13</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9451805345484391</v>
+        <v>0.9451805336774534</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3735,13 +3735,13 @@
         <v>5.27</v>
       </c>
       <c r="B178" t="n">
-        <v>1.493629741777486e-11</v>
+        <v>1.188592782970813e-12</v>
       </c>
       <c r="C178" t="n">
-        <v>6.237839656667944e-12</v>
+        <v>4.963915075106244e-13</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8575930148211293</v>
+        <v>0.8575930151393396</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3754,13 +3754,13 @@
         <v>5.275</v>
       </c>
       <c r="B179" t="n">
-        <v>8.226252141973093e-12</v>
+        <v>6.546243453038152e-13</v>
       </c>
       <c r="C179" t="n">
-        <v>2.419522764190449e-12</v>
+        <v>1.925395038881471e-13</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9876858315015732</v>
+        <v>0.987685831729735</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         <v>5.2798</v>
       </c>
       <c r="B180" t="n">
-        <v>1.215639106130908e-11</v>
+        <v>9.673748635854043e-13</v>
       </c>
       <c r="C180" t="n">
-        <v>5.172016161149986e-12</v>
+        <v>4.115759694487226e-13</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7800313016963083</v>
+        <v>0.7800313026869803</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3792,13 +3792,13 @@
         <v>5.285</v>
       </c>
       <c r="B181" t="n">
-        <v>2.869039168537075e-12</v>
+        <v>8.482020843634483e-13</v>
       </c>
       <c r="C181" t="n">
-        <v>1.470281618945904e-12</v>
+        <v>8.012936892193268e-13</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4994836598018041</v>
+        <v>0.4153626346054218</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3811,13 +3811,13 @@
         <v>5.2902</v>
       </c>
       <c r="B182" t="n">
-        <v>4.247087829496558e-12</v>
+        <v>1.170221558996092e-12</v>
       </c>
       <c r="C182" t="n">
-        <v>2.310497694544001e-12</v>
+        <v>5.610541473721837e-13</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6223589716888673</v>
+        <v>0.9837548125311845</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3830,13 +3830,13 @@
         <v>5.2929</v>
       </c>
       <c r="B183" t="n">
-        <v>4.072080546541836e-12</v>
+        <v>3.240458741379049e-13</v>
       </c>
       <c r="C183" t="n">
-        <v>1.804585900788075e-12</v>
+        <v>1.436043832938372e-13</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6393433004029218</v>
+        <v>0.6393433014200606</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3849,13 +3849,13 @@
         <v>5.2977</v>
       </c>
       <c r="B184" t="n">
-        <v>4.928277735818688e-12</v>
+        <v>3.751277849987955e-13</v>
       </c>
       <c r="C184" t="n">
-        <v>2.412157379636969e-12</v>
+        <v>1.960821058557944e-13</v>
       </c>
       <c r="D184" t="n">
-        <v>0.7094228808885227</v>
+        <v>0.580373202040559</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3868,13 +3868,13 @@
         <v>5.2997</v>
       </c>
       <c r="B185" t="n">
-        <v>1.2800086070417e-11</v>
+        <v>1.018598484737269e-12</v>
       </c>
       <c r="C185" t="n">
-        <v>6.259777512753969e-12</v>
+        <v>4.981372658049773e-13</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7452761620540469</v>
+        <v>0.7452761624473054</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3887,13 +3887,13 @@
         <v>5.3024</v>
       </c>
       <c r="B186" t="n">
-        <v>8.239412040846678e-12</v>
+        <v>6.55671576335489e-13</v>
       </c>
       <c r="C186" t="n">
-        <v>4.301463234728135e-12</v>
+        <v>3.422995673854767e-13</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9638094003962288</v>
+        <v>0.963809399701807</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3906,13 +3906,13 @@
         <v>5.3082</v>
       </c>
       <c r="B187" t="n">
-        <v>1.032057295449123e-11</v>
+        <v>8.212851002988511e-13</v>
       </c>
       <c r="C187" t="n">
-        <v>4.153159906742368e-12</v>
+        <v>3.304979640293912e-13</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9095335030743797</v>
+        <v>0.9095335043434146</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3925,13 +3925,13 @@
         <v>5.3129</v>
       </c>
       <c r="B188" t="n">
-        <v>9.361969419515221e-12</v>
+        <v>7.450018563119522e-13</v>
       </c>
       <c r="C188" t="n">
-        <v>3.687027505955082e-12</v>
+        <v>2.934043269130137e-13</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9960985509685966</v>
+        <v>0.9960985509610678</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3944,13 +3944,13 @@
         <v>5.3175</v>
       </c>
       <c r="B189" t="n">
-        <v>9.62378507217584e-12</v>
+        <v>7.658364812511672e-13</v>
       </c>
       <c r="C189" t="n">
-        <v>4.034568479294655e-12</v>
+        <v>3.210607583657967e-13</v>
       </c>
       <c r="D189" t="n">
-        <v>0.8149136145351343</v>
+        <v>0.814913617910775</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3963,13 +3963,13 @@
         <v>5.3228</v>
       </c>
       <c r="B190" t="n">
-        <v>1.414842200118378e-11</v>
+        <v>1.125895648251838e-12</v>
       </c>
       <c r="C190" t="n">
-        <v>5.499891595261927e-12</v>
+        <v>4.376674670976452e-13</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9469789989088447</v>
+        <v>0.9469789988921632</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3982,13 +3982,13 @@
         <v>5.3277</v>
       </c>
       <c r="B191" t="n">
-        <v>1.461418900993928e-11</v>
+        <v>1.162960206918799e-12</v>
       </c>
       <c r="C191" t="n">
-        <v>5.776109742778998e-12</v>
+        <v>4.596482084313511e-13</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9892168771549309</v>
+        <v>0.9892168773044867</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
         <v>5.3329</v>
       </c>
       <c r="B192" t="n">
-        <v>9.700768321267244e-12</v>
+        <v>9.068029613090318e-13</v>
       </c>
       <c r="C192" t="n">
-        <v>3.129141437991734e-12</v>
+        <v>2.81429117376852e-13</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9983539645356647</v>
+        <v>0.9997107389667278</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>5.3375</v>
       </c>
       <c r="B193" t="n">
-        <v>7.577129018198792e-12</v>
+        <v>8.029941292287838e-13</v>
       </c>
       <c r="C193" t="n">
-        <v>3.549074362933235e-12</v>
+        <v>3.778722324271083e-13</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9167498332987387</v>
+        <v>0.9564669038809114</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4039,13 +4039,13 @@
         <v>5.3427</v>
       </c>
       <c r="B194" t="n">
-        <v>1.370334410816193e-11</v>
+        <v>1.090477477230466e-12</v>
       </c>
       <c r="C194" t="n">
-        <v>5.648227111853101e-12</v>
+        <v>4.494716337850283e-13</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7781249334452423</v>
+        <v>0.7781249369099819</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4058,13 +4058,13 @@
         <v>5.3429</v>
       </c>
       <c r="B195" t="n">
-        <v>1.033108547801867e-11</v>
+        <v>8.22121659771377e-13</v>
       </c>
       <c r="C195" t="n">
-        <v>3.839940418553257e-12</v>
+        <v>3.0557274978288e-13</v>
       </c>
       <c r="D195" t="n">
-        <v>0.729659194894642</v>
+        <v>0.7296591977465683</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         <v>5.3469</v>
       </c>
       <c r="B196" t="n">
-        <v>1.325920123536789e-11</v>
+        <v>1.055133709270904e-12</v>
       </c>
       <c r="C196" t="n">
-        <v>4.177727994694543e-12</v>
+        <v>3.324530303184981e-13</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8057862956532944</v>
+        <v>0.8057862961182634</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4096,13 +4096,13 @@
         <v>5.3483</v>
       </c>
       <c r="B197" t="n">
-        <v>1.517550094289538e-11</v>
+        <v>1.20762799423781e-12</v>
       </c>
       <c r="C197" t="n">
-        <v>4.991300867119981e-12</v>
+        <v>3.971951028112853e-13</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5085341912546999</v>
+        <v>0.5085341854346215</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         <v>5.3486</v>
       </c>
       <c r="B198" t="n">
-        <v>1.728494799892918e-11</v>
+        <v>1.375492459060608e-12</v>
       </c>
       <c r="C198" t="n">
-        <v>4.060237528817656e-12</v>
+        <v>3.231034360718991e-13</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9888232046618984</v>
+        <v>0.988823204671333</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4134,13 +4134,13 @@
         <v>5.3521</v>
       </c>
       <c r="B199" t="n">
-        <v>9.540681141311706e-12</v>
+        <v>7.592232828632092e-13</v>
       </c>
       <c r="C199" t="n">
-        <v>3.950230685768975e-12</v>
+        <v>3.143493699989271e-13</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8023477917631814</v>
+        <v>0.8023477907819863</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4153,13 +4153,13 @@
         <v>5.3536</v>
       </c>
       <c r="B200" t="n">
-        <v>1.689492147816615e-11</v>
+        <v>1.344455133607031e-12</v>
       </c>
       <c r="C200" t="n">
-        <v>3.938151778969283e-12</v>
+        <v>3.13388161251796e-13</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7550924449163617</v>
+        <v>0.7550924502695997</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4172,13 +4172,13 @@
         <v>5.3579</v>
       </c>
       <c r="B201" t="n">
-        <v>1.117964643858077e-11</v>
+        <v>8.896479960329714e-13</v>
       </c>
       <c r="C201" t="n">
-        <v>4.506727032297459e-12</v>
+        <v>3.586339427732164e-13</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9705064107522724</v>
+        <v>0.9705064106673403</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4191,13 +4191,13 @@
         <v>5.3598</v>
       </c>
       <c r="B202" t="n">
-        <v>6.265611403388447e-12</v>
+        <v>4.986015126476072e-13</v>
       </c>
       <c r="C202" t="n">
-        <v>2.87581106616773e-12</v>
+        <v>2.288497732961449e-13</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9153348654697072</v>
+        <v>0.9153348654743465</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4210,13 +4210,13 @@
         <v>5.3619</v>
       </c>
       <c r="B203" t="n">
-        <v>5.439811856952294e-12</v>
+        <v>4.328864739994227e-13</v>
       </c>
       <c r="C203" t="n">
-        <v>2.829150885309787e-12</v>
+        <v>2.251366743584448e-13</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5842693705656619</v>
+        <v>0.5842693711573115</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4229,13 +4229,13 @@
         <v>5.3639</v>
       </c>
       <c r="B204" t="n">
-        <v>1.053641867500168e-11</v>
+        <v>8.384615579598386e-13</v>
       </c>
       <c r="C204" t="n">
-        <v>4.496036387190995e-12</v>
+        <v>3.577832081654522e-13</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6496575231253177</v>
+        <v>0.6496575255169522</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4248,13 +4248,13 @@
         <v>5.366</v>
       </c>
       <c r="B205" t="n">
-        <v>5.187788514991344e-12</v>
+        <v>4.128310926260336e-13</v>
       </c>
       <c r="C205" t="n">
-        <v>2.375507437290544e-12</v>
+        <v>1.890368756353122e-13</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8818048049474291</v>
+        <v>0.8818048047556064</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4267,13 +4267,13 @@
         <v>5.368</v>
       </c>
       <c r="B206" t="n">
-        <v>9.328276156231147e-12</v>
+        <v>7.423206303858594e-13</v>
       </c>
       <c r="C206" t="n">
-        <v>3.404942241944421e-12</v>
+        <v>2.709566941847989e-13</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9199534396012099</v>
+        <v>0.9199534394717344</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4286,13 +4286,13 @@
         <v>5.3697</v>
       </c>
       <c r="B207" t="n">
-        <v>1.474866627351254e-11</v>
+        <v>1.173661571014936e-12</v>
       </c>
       <c r="C207" t="n">
-        <v>6.057875581515995e-12</v>
+        <v>4.820704209071321e-13</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8348163063343947</v>
+        <v>0.8348163058555325</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         <v>5.3748</v>
       </c>
       <c r="B208" t="n">
-        <v>2.011656078880841e-11</v>
+        <v>1.600825046933327e-12</v>
       </c>
       <c r="C208" t="n">
-        <v>4.027221687818635e-12</v>
+        <v>3.20476119122717e-13</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8004778137264918</v>
+        <v>0.8004778102723229</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4324,13 +4324,13 @@
         <v>5.3801</v>
       </c>
       <c r="B209" t="n">
-        <v>2.414606606822023e-11</v>
+        <v>1.921482886464961e-12</v>
       </c>
       <c r="C209" t="n">
-        <v>3.517688789398205e-12</v>
+        <v>2.799287795354114e-13</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7297168242224089</v>
+        <v>0.7297168221452723</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4343,13 +4343,13 @@
         <v>5.3829</v>
       </c>
       <c r="B210" t="n">
-        <v>2.695391966094553e-11</v>
+        <v>2.144924776669083e-12</v>
       </c>
       <c r="C210" t="n">
-        <v>3.446269356103438e-12</v>
+        <v>2.74245401839172e-13</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6991700713024686</v>
+        <v>0.6991700703262991</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4362,13 +4362,13 @@
         <v>5.3833</v>
       </c>
       <c r="B211" t="n">
-        <v>2.520060656246523e-11</v>
+        <v>2.00540054715096e-12</v>
       </c>
       <c r="C211" t="n">
-        <v>2.678567396480448e-12</v>
+        <v>2.131536206172127e-13</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1759885413503095</v>
+        <v>0.1759885382814846</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4381,13 +4381,13 @@
         <v>5.3839</v>
       </c>
       <c r="B212" t="n">
-        <v>2.904912140168686e-11</v>
+        <v>2.311655633045887e-12</v>
       </c>
       <c r="C212" t="n">
-        <v>2.867802949215283e-12</v>
+        <v>2.282125075794004e-13</v>
       </c>
       <c r="D212" t="n">
-        <v>0.09491346713158796</v>
+        <v>0.09491346626474838</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4400,13 +4400,13 @@
         <v>5.386</v>
       </c>
       <c r="B213" t="n">
-        <v>2.818520997997998e-11</v>
+        <v>2.242907747608952e-12</v>
       </c>
       <c r="C213" t="n">
-        <v>2.944561058947388e-12</v>
+        <v>2.343207238790851e-13</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6179049152312193</v>
+        <v>0.6179049171291833</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4419,13 +4419,13 @@
         <v>5.3899</v>
       </c>
       <c r="B214" t="n">
-        <v>2.707712048824081e-11</v>
+        <v>2.154728786525614e-12</v>
       </c>
       <c r="C214" t="n">
-        <v>2.335119201780029e-12</v>
+        <v>1.858228818457067e-13</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5364641760665727</v>
+        <v>0.5364641774259722</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4438,13 +4438,13 @@
         <v>5.3931</v>
       </c>
       <c r="B215" t="n">
-        <v>2.563064923310895e-11</v>
+        <v>2.039622258537611e-12</v>
       </c>
       <c r="C215" t="n">
-        <v>2.434191847374514e-12</v>
+        <v>1.937068325579373e-13</v>
       </c>
       <c r="D215" t="n">
-        <v>0.2652601404718805</v>
+        <v>0.2652601413803582</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4457,13 +4457,13 @@
         <v>5.4034</v>
       </c>
       <c r="B216" t="n">
-        <v>1.63899606050832e-11</v>
+        <v>1.304271624643303e-12</v>
       </c>
       <c r="C216" t="n">
-        <v>2.073005485303915e-12</v>
+        <v>1.649645350518081e-13</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9233938645497266</v>
+        <v>0.9233938664334669</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4476,13 +4476,13 @@
         <v>5.4141</v>
       </c>
       <c r="B217" t="n">
-        <v>1.679655718215352e-11</v>
+        <v>1.336627551746651e-12</v>
       </c>
       <c r="C217" t="n">
-        <v>2.244293426441832e-12</v>
+        <v>1.785951962395585e-13</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3315252426758633</v>
+        <v>0.3315252413480178</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4495,13 +4495,13 @@
         <v>5.4244</v>
       </c>
       <c r="B218" t="n">
-        <v>1.149983535950022e-11</v>
+        <v>9.151278213668734e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>1.925921675762325e-12</v>
+        <v>1.532599772845291e-13</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9997798167299606</v>
+        <v>0.9997798167020255</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4514,13 +4514,13 @@
         <v>5.4354</v>
       </c>
       <c r="B219" t="n">
-        <v>1.294570381391911e-11</v>
+        <v>1.030186376188586e-12</v>
       </c>
       <c r="C219" t="n">
-        <v>1.969777858481688e-12</v>
+        <v>1.567499415211697e-13</v>
       </c>
       <c r="D219" t="n">
-        <v>0.3012182607847494</v>
+        <v>0.3012182630234962</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4533,13 +4533,13 @@
         <v>5.4393</v>
       </c>
       <c r="B220" t="n">
-        <v>1.823354847443982e-11</v>
+        <v>1.450979683233028e-12</v>
       </c>
       <c r="C220" t="n">
-        <v>2.463147670797438e-12</v>
+        <v>1.960110635865021e-13</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7267949402674448</v>
+        <v>0.7267949407387237</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
